--- a/results/data/CG2.3.xlsx
+++ b/results/data/CG2.3.xlsx
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1283040.338</v>
+        <v>1283040.337999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>936294.1989999989</v>
+        <v>936294.1989999979</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>925690.9810000007</v>
+        <v>925963.0650000017</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CG2.3.xlsx
+++ b/results/data/CG2.3.xlsx
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1283040.337999999</v>
+        <v>1242756.610999999</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>936294.1989999979</v>
+        <v>924237.724999998</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -421,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>925963.0650000017</v>
+        <v>914911.1290000015</v>
       </c>
     </row>
   </sheetData>
